--- a/SeiaOrg.xlsx
+++ b/SeiaOrg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d651ccd468905d1c/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75cb4d92e05d1892/Desktop/course work/FinalProject/Week3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{632BB688-EAC3-4181-AFA0-152700E242EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{803D0A96-667B-4566-946F-D6B6816D3275}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2F5E9DB-A1A1-4D25-A5DB-31D6951A22FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54420" yWindow="4650" windowWidth="17115" windowHeight="10800" xr2:uid="{9752FD2C-B991-4026-8247-D35B1DE28FC0}"/>
+    <workbookView xWindow="2295" yWindow="1755" windowWidth="15375" windowHeight="9015" xr2:uid="{9752FD2C-B991-4026-8247-D35B1DE28FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,7 @@
   <authors>
     <author>tc={B5D400E2-9811-45FD-B656-4638B75C1DF8}</author>
     <author>tc={459A3217-3B64-4686-ACC1-5614880A699B}</author>
-    <author>tc={91106881-EA90-4306-81B0-CCCE0152E6C0}</author>
     <author>tc={D2D2E68A-16AD-470E-9C66-C3ED3C6D8546}</author>
-    <author>tc={6E05B640-20F8-4C1B-84A7-D756FF03828E}</author>
-    <author>tc={D9794E13-A307-4993-85CF-79452652E3AD}</author>
-    <author>tc={452FFEC7-872A-45D5-A731-175B2B3A0765}</author>
-    <author>tc={F81D15DE-EB1B-45C5-B88D-73E5A688AA59}</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B5D400E2-9811-45FD-B656-4638B75C1DF8}">
@@ -63,15 +58,7 @@
     Solar Rankings by State seia.org</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{91106881-EA90-4306-81B0-CCCE0152E6C0}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    State Homes Powered By Solar seia.org</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{D2D2E68A-16AD-470E-9C66-C3ED3C6D8546}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{D2D2E68A-16AD-470E-9C66-C3ED3C6D8546}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,44 +66,12 @@
     Percent of States's Electricity from solar seia.org</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{6E05B640-20F8-4C1B-84A7-D756FF03828E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Solar Companies in State seia.org</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="5" shapeId="0" xr:uid="{D9794E13-A307-4993-85CF-79452652E3AD}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Total Solar Investment in State seia.org</t>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="6" shapeId="0" xr:uid="{452FFEC7-872A-45D5-A731-175B2B3A0765}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Prices have Fallen seia.org</t>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="7" shapeId="0" xr:uid="{F81D15DE-EB1B-45C5-B88D-73E5A688AA59}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Growth Projections seia.org</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>State</t>
   </si>
@@ -164,28 +119,19 @@
   </si>
   <si>
     <t>Growth Projections</t>
-  </si>
-  <si>
-    <t>Projected Ranks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,8 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,47 +485,32 @@
   <threadedComment ref="C1" dT="2021-12-12T21:30:07.13" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{459A3217-3B64-4686-ACC1-5614880A699B}">
     <text>Solar Rankings by State seia.org</text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2021-12-12T22:16:01.62" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{91106881-EA90-4306-81B0-CCCE0152E6C0}">
-    <text>State Homes Powered By Solar seia.org</text>
-  </threadedComment>
   <threadedComment ref="E1" dT="2021-12-12T21:39:48.43" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{D2D2E68A-16AD-470E-9C66-C3ED3C6D8546}">
     <text>Percent of States's Electricity from solar seia.org</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2021-12-12T22:18:37.42" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{6E05B640-20F8-4C1B-84A7-D756FF03828E}">
-    <text>Solar Companies in State seia.org</text>
-  </threadedComment>
-  <threadedComment ref="G1" dT="2021-12-12T22:19:31.33" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{D9794E13-A307-4993-85CF-79452652E3AD}">
-    <text>Total Solar Investment in State seia.org</text>
-  </threadedComment>
-  <threadedComment ref="H1" dT="2021-12-12T22:20:38.15" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{452FFEC7-872A-45D5-A731-175B2B3A0765}">
-    <text>Prices have Fallen seia.org</text>
-  </threadedComment>
-  <threadedComment ref="I1" dT="2021-12-12T22:22:34.62" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{F81D15DE-EB1B-45C5-B88D-73E5A688AA59}">
-    <text>Growth Projections seia.org</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B22E332-4DC1-47AC-8095-5081680453BB}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.59765625" customWidth="1"/>
-    <col min="6" max="6" width="15.46484375" customWidth="1"/>
-    <col min="7" max="7" width="15.06640625" customWidth="1"/>
-    <col min="8" max="8" width="12.53125" customWidth="1"/>
-    <col min="9" max="9" width="18.53125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,51 +538,45 @@
       <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0.26</v>
       </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>579272</v>
-      </c>
-      <c r="E2">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="F2">
-        <v>470</v>
-      </c>
-      <c r="G2">
-        <v>11100000</v>
-      </c>
-      <c r="H2">
-        <v>0.36</v>
-      </c>
-      <c r="I2">
-        <v>2284</v>
-      </c>
-      <c r="J2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>95263</v>
+      </c>
+      <c r="E3">
+        <v>0.49</v>
+      </c>
+      <c r="F3">
+        <v>251</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1300000000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="I3">
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -657,7 +584,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -665,17 +592,17 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>

--- a/SeiaOrg.xlsx
+++ b/SeiaOrg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75cb4d92e05d1892/Desktop/course work/FinalProject/Week3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d651ccd468905d1c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2F5E9DB-A1A1-4D25-A5DB-31D6951A22FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{632BB688-EAC3-4181-AFA0-152700E242EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12CBC5C3-CDFE-481C-8820-42847178221E}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1755" windowWidth="15375" windowHeight="9015" xr2:uid="{9752FD2C-B991-4026-8247-D35B1DE28FC0}"/>
+    <workbookView xWindow="46875" yWindow="8805" windowWidth="24675" windowHeight="10800" xr2:uid="{9752FD2C-B991-4026-8247-D35B1DE28FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,13 @@
   <authors>
     <author>tc={B5D400E2-9811-45FD-B656-4638B75C1DF8}</author>
     <author>tc={459A3217-3B64-4686-ACC1-5614880A699B}</author>
+    <author>tc={91106881-EA90-4306-81B0-CCCE0152E6C0}</author>
     <author>tc={D2D2E68A-16AD-470E-9C66-C3ED3C6D8546}</author>
+    <author>tc={6E05B640-20F8-4C1B-84A7-D756FF03828E}</author>
+    <author>tc={D9794E13-A307-4993-85CF-79452652E3AD}</author>
+    <author>tc={452FFEC7-872A-45D5-A731-175B2B3A0765}</author>
+    <author>tc={F81D15DE-EB1B-45C5-B88D-73E5A688AA59}</author>
+    <author>tc={BA23D656-9CFD-4732-B113-449E8F5586FF}</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B5D400E2-9811-45FD-B656-4638B75C1DF8}">
@@ -58,12 +64,60 @@
     Solar Rankings by State seia.org</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{D2D2E68A-16AD-470E-9C66-C3ED3C6D8546}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{91106881-EA90-4306-81B0-CCCE0152E6C0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    State Homes Powered By Solar seia.org</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{D2D2E68A-16AD-470E-9C66-C3ED3C6D8546}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Percent of States's Electricity from solar seia.org</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="4" shapeId="0" xr:uid="{6E05B640-20F8-4C1B-84A7-D756FF03828E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Solar Companies in State seia.org</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="5" shapeId="0" xr:uid="{D9794E13-A307-4993-85CF-79452652E3AD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Total Solar Investment in State seia.org</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="6" shapeId="0" xr:uid="{452FFEC7-872A-45D5-A731-175B2B3A0765}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Prices have Fallen seia.org</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="7" shapeId="0" xr:uid="{F81D15DE-EB1B-45C5-B88D-73E5A688AA59}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Growth Projections in the next 5 years seia.org</t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="8" shapeId="0" xr:uid="{BA23D656-9CFD-4732-B113-449E8F5586FF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Growth Projection Rankings  in the next 5 Years seia.org</t>
       </text>
     </comment>
   </commentList>
@@ -97,15 +151,9 @@
     <t>Solar Rankings</t>
   </si>
   <si>
-    <t>** Solar Rankings by state seia.org</t>
-  </si>
-  <si>
     <t>Percent electricity</t>
   </si>
   <si>
-    <t>***Percent of State's Eletricity from Solar by state seia.org</t>
-  </si>
-  <si>
     <t>Powered by Solar</t>
   </si>
   <si>
@@ -119,19 +167,31 @@
   </si>
   <si>
     <t>Growth Projections</t>
+  </si>
+  <si>
+    <t>Projected Ranks</t>
+  </si>
+  <si>
+    <t>** Solar by state seia.org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,10 +214,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,32 +543,51 @@
   <threadedComment ref="C1" dT="2021-12-12T21:30:07.13" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{459A3217-3B64-4686-ACC1-5614880A699B}">
     <text>Solar Rankings by State seia.org</text>
   </threadedComment>
+  <threadedComment ref="D1" dT="2021-12-12T22:16:01.62" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{91106881-EA90-4306-81B0-CCCE0152E6C0}">
+    <text>State Homes Powered By Solar seia.org</text>
+  </threadedComment>
   <threadedComment ref="E1" dT="2021-12-12T21:39:48.43" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{D2D2E68A-16AD-470E-9C66-C3ED3C6D8546}">
     <text>Percent of States's Electricity from solar seia.org</text>
   </threadedComment>
+  <threadedComment ref="F1" dT="2021-12-12T22:18:37.42" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{6E05B640-20F8-4C1B-84A7-D756FF03828E}">
+    <text>Solar Companies in State seia.org</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2021-12-12T22:19:31.33" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{D9794E13-A307-4993-85CF-79452652E3AD}">
+    <text>Total Solar Investment in State seia.org</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2021-12-12T22:20:38.15" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{452FFEC7-872A-45D5-A731-175B2B3A0765}">
+    <text>Prices have Fallen seia.org</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2021-12-12T22:22:34.62" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{F81D15DE-EB1B-45C5-B88D-73E5A688AA59}">
+    <text>Growth Projections in the next 5 years seia.org</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2021-12-12T22:32:43.82" personId="{6D4A1E1E-38B2-4771-9D4E-D99F2630CD23}" id="{BA23D656-9CFD-4732-B113-449E8F5586FF}">
+    <text>Growth Projection Rankings  in the next 5 Years seia.org</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B22E332-4DC1-47AC-8095-5081680453BB}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" customWidth="1"/>
+    <col min="7" max="7" width="15.06640625" customWidth="1"/>
+    <col min="8" max="8" width="12.53125" customWidth="1"/>
+    <col min="9" max="9" width="18.53125" customWidth="1"/>
+    <col min="10" max="10" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,62 +598,68 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0.26</v>
       </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>579272</v>
+      </c>
+      <c r="E2">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="F2">
+        <v>470</v>
+      </c>
+      <c r="G2">
+        <v>11100000</v>
+      </c>
+      <c r="H2">
+        <v>0.36</v>
+      </c>
+      <c r="I2">
+        <v>2284</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>0.26</v>
       </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>95263</v>
-      </c>
-      <c r="E3">
-        <v>0.49</v>
-      </c>
-      <c r="F3">
-        <v>251</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1300000000</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="I3">
-        <v>5596</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -584,7 +667,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -592,19 +675,14 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/SeiaOrg.xlsx
+++ b/SeiaOrg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d651ccd468905d1c/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chave\Desktop\DATA SCIENCE\DSO0110 Final Group Project\Lesson 3 Week 3 Exploratory Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{632BB688-EAC3-4181-AFA0-152700E242EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12CBC5C3-CDFE-481C-8820-42847178221E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA908F8-513C-4089-843D-9D4A2AA22808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46875" yWindow="8805" windowWidth="24675" windowHeight="10800" xr2:uid="{9752FD2C-B991-4026-8247-D35B1DE28FC0}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="19200" windowHeight="9980" xr2:uid="{9752FD2C-B991-4026-8247-D35B1DE28FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>State</t>
   </si>
@@ -145,18 +145,12 @@
     <t>ITC</t>
   </si>
   <si>
-    <t>*ITC, Investment Tax Solar Credit credit seia.org</t>
-  </si>
-  <si>
     <t>Solar Rankings</t>
   </si>
   <si>
     <t>Percent electricity</t>
   </si>
   <si>
-    <t>Powered by Solar</t>
-  </si>
-  <si>
     <t>Investments</t>
   </si>
   <si>
@@ -169,16 +163,160 @@
     <t>Growth Projections</t>
   </si>
   <si>
-    <t>Projected Ranks</t>
-  </si>
-  <si>
-    <t>** Solar by state seia.org</t>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Growth Ranks</t>
+  </si>
+  <si>
+    <t>Homes Powered</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>AK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,10 +326,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,13 +350,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,25 +713,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B22E332-4DC1-47AC-8095-5081680453BB}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.59765625" customWidth="1"/>
-    <col min="6" max="6" width="15.46484375" customWidth="1"/>
-    <col min="7" max="7" width="15.06640625" customWidth="1"/>
-    <col min="8" max="8" width="12.53125" customWidth="1"/>
-    <col min="9" max="9" width="18.53125" customWidth="1"/>
-    <col min="10" max="10" width="15.46484375" customWidth="1"/>
+    <col min="3" max="3" width="14.703125" customWidth="1"/>
+    <col min="4" max="4" width="16.703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5859375" customWidth="1"/>
+    <col min="6" max="6" width="15.41015625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12.5859375" customWidth="1"/>
+    <col min="9" max="9" width="18.5859375" customWidth="1"/>
+    <col min="10" max="10" width="15.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,94 +742,1657 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.26</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30050</v>
+      </c>
+      <c r="E2">
+        <v>2.8E-3</v>
+      </c>
+      <c r="F2">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1">
+        <v>339000000</v>
+      </c>
+      <c r="H2">
+        <v>0.36</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1349</v>
+      </c>
+      <c r="J2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>0.26</v>
+      </c>
+      <c r="C3">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1502</v>
+      </c>
+      <c r="E3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1">
+        <v>33000000</v>
+      </c>
+      <c r="H3">
+        <v>0.36</v>
+      </c>
+      <c r="I3" s="1">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.26</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>907817</v>
+      </c>
+      <c r="E4">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>361</v>
+      </c>
+      <c r="G4" s="1">
+        <v>14600000000</v>
+      </c>
+      <c r="H4">
+        <v>0.36</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5316</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.26</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45613</v>
+      </c>
+      <c r="E5">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1">
+        <v>527000000</v>
+      </c>
+      <c r="H5">
+        <v>0.36</v>
+      </c>
+      <c r="I5" s="1">
+        <v>982</v>
+      </c>
+      <c r="J5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.26</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8430324</v>
+      </c>
+      <c r="E6">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2438</v>
+      </c>
+      <c r="G6" s="1">
+        <v>74500000000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I6" s="1">
+        <v>21444</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>0.26</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>335951</v>
+      </c>
+      <c r="E7">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="F7">
+        <v>415</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4300000000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3683</v>
+      </c>
+      <c r="J7" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>0.26</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>134691</v>
+      </c>
+      <c r="E8">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>163</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2400000000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1113</v>
+      </c>
+      <c r="J8" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.26</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1">
+        <v>18287</v>
+      </c>
+      <c r="E9">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1">
+        <v>468000000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I9" s="1">
+        <v>468</v>
+      </c>
+      <c r="J9" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.26</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22894</v>
+      </c>
+      <c r="E10">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="F10">
+        <v>179</v>
+      </c>
+      <c r="G10" s="1">
+        <v>359000000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I10" s="1">
+        <v>245</v>
+      </c>
+      <c r="J10" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0.26</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>908181</v>
+      </c>
+      <c r="E11">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="F11">
+        <v>482</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10300000000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I11" s="1">
+        <v>12046</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>0.26</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>373248</v>
+      </c>
+      <c r="E12">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="F12">
+        <v>222</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3800000000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2082</v>
+      </c>
+      <c r="J12" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0.26</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <v>353421</v>
+      </c>
+      <c r="E13">
+        <v>0.1709</v>
+      </c>
+      <c r="F13">
+        <v>121</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3800000000</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1277</v>
+      </c>
+      <c r="J13" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0.26</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1">
+        <v>78795</v>
+      </c>
+      <c r="E14">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1">
+        <v>832000000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I14" s="1">
+        <v>413</v>
+      </c>
+      <c r="J14" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0.26</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1">
+        <v>98419</v>
+      </c>
+      <c r="E15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F15">
+        <v>346</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1500000000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2633</v>
+      </c>
+      <c r="J15" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>0.26</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>120970</v>
+      </c>
+      <c r="E16">
+        <v>7.6E-3</v>
+      </c>
+      <c r="F16">
+        <v>88</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1200000000</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5885</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0.26</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1">
+        <v>54407</v>
+      </c>
+      <c r="E17">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="F17">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1">
+        <v>567000000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1238</v>
+      </c>
+      <c r="J17" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>0.26</v>
+      </c>
+      <c r="C18">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12815</v>
+      </c>
+      <c r="E18">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F18">
+        <v>46</v>
+      </c>
+      <c r="G18" s="1">
+        <v>135000000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I18" s="1">
+        <v>606</v>
+      </c>
+      <c r="J18" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>0.26</v>
+      </c>
+      <c r="C19">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6332</v>
+      </c>
+      <c r="E19">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F19">
+        <v>51</v>
+      </c>
+      <c r="G19" s="1">
+        <v>125000000</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I19" s="1">
+        <v>815</v>
+      </c>
+      <c r="J19" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0.26</v>
+      </c>
+      <c r="C20">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18505</v>
+      </c>
+      <c r="E20">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="F20">
+        <v>61</v>
+      </c>
+      <c r="G20" s="1">
+        <v>476000000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I20" s="1">
+        <v>934</v>
+      </c>
+      <c r="J20" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>0.26</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1">
+        <v>50238</v>
+      </c>
+      <c r="E21">
+        <v>1.83E-2</v>
+      </c>
+      <c r="F21">
+        <v>56</v>
+      </c>
+      <c r="G21" s="1">
+        <v>405000000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1519</v>
+      </c>
+      <c r="J21" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>0.26</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1">
+        <v>153215</v>
+      </c>
+      <c r="E22">
+        <v>4.41E-2</v>
+      </c>
+      <c r="F22">
+        <v>205</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3600000000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1373</v>
+      </c>
+      <c r="J22" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>0.26</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>552186</v>
+      </c>
+      <c r="E23">
+        <v>0.1852</v>
+      </c>
+      <c r="F23">
+        <v>490</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8000000000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1803</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>0.26</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1">
+        <v>93061</v>
+      </c>
+      <c r="E24">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="F24">
+        <v>217</v>
+      </c>
+      <c r="G24" s="1">
+        <v>784000000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2031</v>
+      </c>
+      <c r="J24" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>0.26</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1">
+        <v>213732</v>
+      </c>
+      <c r="E25">
+        <v>3.56E-2</v>
+      </c>
+      <c r="F25">
+        <v>164</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2400000000</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1631</v>
+      </c>
+      <c r="J25" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>0.26</v>
+      </c>
+      <c r="C26">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1">
+        <v>33967</v>
+      </c>
+      <c r="E26">
+        <v>6.6E-3</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1">
+        <v>354000000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>0.26</v>
+      </c>
+      <c r="C27">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1">
+        <v>33623</v>
+      </c>
+      <c r="E27">
+        <v>6.6E-3</v>
+      </c>
+      <c r="F27">
+        <v>137</v>
+      </c>
+      <c r="G27" s="1">
+        <v>793000000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I27" s="1">
+        <v>849</v>
+      </c>
+      <c r="J27" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>0.26</v>
+      </c>
+      <c r="C28">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1">
+        <v>16441</v>
+      </c>
+      <c r="E28">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F28">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1">
+        <v>161000000</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I28" s="1">
+        <v>598</v>
+      </c>
+      <c r="J28" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>0.26</v>
+      </c>
+      <c r="C29">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8332</v>
+      </c>
+      <c r="E29">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29" s="1">
+        <v>95000000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I29" s="1">
+        <v>746</v>
+      </c>
+      <c r="J29" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>0.26</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>695487</v>
+      </c>
+      <c r="E30">
+        <v>0.15909999999999999</v>
+      </c>
+      <c r="F30">
+        <v>108</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8000000000</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4950</v>
+      </c>
+      <c r="J30" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>0.26</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="D31" s="1">
+        <v>22300</v>
+      </c>
+      <c r="E31">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="F31">
+        <v>66</v>
+      </c>
+      <c r="G31" s="1">
+        <v>366000000</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I31" s="1">
+        <v>356</v>
+      </c>
+      <c r="J31" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0.26</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>579272</v>
+      </c>
+      <c r="E32">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="F32">
+        <v>470</v>
+      </c>
+      <c r="G32" s="1">
+        <v>11100000000</v>
+      </c>
+      <c r="H32">
+        <v>0.36</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2284</v>
+      </c>
+      <c r="J32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1">
+        <v>284169</v>
+      </c>
+      <c r="E33">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="F33">
+        <v>87</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2400000000</v>
+      </c>
+      <c r="H33">
+        <v>0.36</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2952</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0.26</v>
+      </c>
+      <c r="C34">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D34" s="1">
+        <v>483665</v>
+      </c>
+      <c r="E34">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="F34">
+        <v>761</v>
+      </c>
+      <c r="G34" s="1">
+        <v>7000000000</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I34" s="1">
+        <v>5081</v>
+      </c>
+      <c r="J34" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0.26</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>846689</v>
+      </c>
+      <c r="E35">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="F35">
+        <v>257</v>
+      </c>
+      <c r="G35" s="1">
+        <v>9800000000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2596</v>
+      </c>
+      <c r="J35" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0.26</v>
+      </c>
+      <c r="C36">
+        <v>51</v>
+      </c>
+      <c r="D36" s="1">
+        <v>133</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I36" s="1">
+        <v>147</v>
+      </c>
+      <c r="J36" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>0.26</v>
+      </c>
+      <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1">
+        <v>95263</v>
+      </c>
+      <c r="E37">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="F37">
+        <v>251</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1300000000</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5596</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38">
+        <v>0.26</v>
+      </c>
+      <c r="C38">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9766</v>
+      </c>
+      <c r="E38">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38" s="1">
+        <v>138000000</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I38" s="1">
+        <v>981</v>
+      </c>
+      <c r="J38" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>0.26</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1">
+        <v>147535</v>
+      </c>
+      <c r="E39">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="F39">
+        <v>141</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1800000000</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1668</v>
+      </c>
+      <c r="J39" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>0.26</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1">
+        <v>96251</v>
+      </c>
+      <c r="E40">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="F40">
+        <v>484</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2300000000</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1706</v>
+      </c>
+      <c r="J40" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>0.26</v>
+      </c>
+      <c r="C41">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1">
+        <v>75934</v>
+      </c>
+      <c r="E41">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41" s="1">
+        <v>693000000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I41" s="1">
+        <v>444</v>
+      </c>
+      <c r="J41" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>0.26</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
+        <v>220222</v>
+      </c>
+      <c r="E42">
+        <v>2.53E-2</v>
+      </c>
+      <c r="F42">
+        <v>83</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2400000000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2227</v>
+      </c>
+      <c r="J42" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43">
+        <v>0.26</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43" s="1">
+        <v>210</v>
+      </c>
+      <c r="E43">
+        <v>1E-4</v>
+      </c>
+      <c r="F43">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I43" s="1">
+        <v>312</v>
+      </c>
+      <c r="J43" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>0.26</v>
+      </c>
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44" s="1">
+        <v>35463</v>
+      </c>
+      <c r="E44">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F44">
+        <v>143</v>
+      </c>
+      <c r="G44" s="1">
+        <v>667000000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1807</v>
+      </c>
+      <c r="J44" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>0.26</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1297592</v>
+      </c>
+      <c r="E45">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="F45">
+        <v>596</v>
+      </c>
+      <c r="G45" s="1">
+        <v>13000000000</v>
+      </c>
+      <c r="H45">
+        <v>0.36</v>
+      </c>
+      <c r="I45" s="1">
+        <v>26995</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.26</v>
+      </c>
+      <c r="C46">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.26</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>579272</v>
-      </c>
-      <c r="E2">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="F2">
-        <v>470</v>
-      </c>
-      <c r="G2">
-        <v>11100000</v>
-      </c>
-      <c r="H2">
-        <v>0.36</v>
-      </c>
-      <c r="I2">
-        <v>2284</v>
-      </c>
-      <c r="J2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="D46" s="1">
+        <v>447080</v>
+      </c>
+      <c r="E46">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="F46">
+        <v>119</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3600000000</v>
+      </c>
+      <c r="H46">
+        <v>0.36</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1447</v>
+      </c>
+      <c r="J46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.26</v>
+      </c>
+      <c r="C47">
+        <v>31</v>
+      </c>
+      <c r="D47" s="1">
+        <v>67661</v>
+      </c>
+      <c r="E47">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="F47">
+        <v>70</v>
+      </c>
+      <c r="G47" s="1">
+        <v>737000000</v>
+      </c>
+      <c r="H47">
+        <v>0.36</v>
+      </c>
+      <c r="I47" s="1">
+        <v>190</v>
+      </c>
+      <c r="J47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>15</v>
+      <c r="B48">
+        <v>0.26</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48" s="2">
+        <v>283853</v>
+      </c>
+      <c r="E48">
+        <v>2.5699999999999998E-3</v>
+      </c>
+      <c r="F48">
+        <v>208</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2900000000</v>
+      </c>
+      <c r="H48">
+        <v>0.36</v>
+      </c>
+      <c r="I48" s="1">
+        <v>5872</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>0.26</v>
+      </c>
+      <c r="C49">
+        <v>37</v>
+      </c>
+      <c r="D49" s="1">
+        <v>26701</v>
+      </c>
+      <c r="E49">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F49">
+        <v>149</v>
+      </c>
+      <c r="G49" s="1">
+        <v>799000000</v>
+      </c>
+      <c r="H49">
+        <v>0.36</v>
+      </c>
+      <c r="I49">
+        <v>743</v>
+      </c>
+      <c r="J49">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>0.26</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1340</v>
+      </c>
+      <c r="E50">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F50">
+        <v>19</v>
+      </c>
+      <c r="G50" s="1">
+        <v>45000000</v>
+      </c>
+      <c r="H50">
+        <v>0.36</v>
+      </c>
+      <c r="I50" s="1">
+        <v>224</v>
+      </c>
+      <c r="J50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>0.26</v>
+      </c>
+      <c r="C51">
+        <v>27</v>
+      </c>
+      <c r="D51" s="1">
+        <v>76931</v>
+      </c>
+      <c r="E51">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="F51">
+        <v>171</v>
+      </c>
+      <c r="G51" s="1">
+        <v>669000000</v>
+      </c>
+      <c r="H51">
+        <v>0.36</v>
+      </c>
+      <c r="I51" s="1">
+        <v>3741</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>0.26</v>
+      </c>
+      <c r="C52">
+        <v>42</v>
+      </c>
+      <c r="D52" s="1">
+        <v>22211</v>
+      </c>
+      <c r="E52">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1">
+        <v>154000000</v>
+      </c>
+      <c r="H52">
+        <v>0.36</v>
+      </c>
+      <c r="I52" s="1">
+        <v>121</v>
+      </c>
+      <c r="J52">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
